--- a/table/Table_bigSIZE.xlsx
+++ b/table/Table_bigSIZE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\NSTU\5 СЕМЕСТР\Численные методы\ЛАБ-3\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D4FD8A-8F12-4884-8CE1-5E4937E82C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C3D7E-5A14-4079-AFA5-5E1F54BFF397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,43 +191,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,112 +525,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="16">
         <v>945</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>391</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>4.5877000000000001E-2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>9.8500149999999999E-21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="6">
         <v>50</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="6">
         <v>3.8897000000000001E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="7">
         <v>5.736188E-21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="6">
         <v>414</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="6">
         <v>4.9037999999999998E-2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="7">
         <v>9.8576299999999998E-21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>31</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>3.9907999999999999E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>8.8340459999999993E-21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -643,198 +643,198 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>4545</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <v>2006</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>0.46333299999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>8.4204920000000001E-21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="6">
         <v>157</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="6">
         <v>0.19649</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="7">
         <v>9.8487209999999997E-21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="6">
         <v>2035</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="6">
         <v>0.44056800000000002</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="7">
         <v>9.8994369999999998E-21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="14" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>109</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>0.21582999999999999</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>9.0762309999999994E-21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>10000</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>4924</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>0.91859500000000005</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="5">
         <v>9.3777120000000008E-21</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="6">
         <v>3016</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="6">
         <v>0.72831999999999997</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="7">
         <v>7.5096549999999997E-21</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="6">
         <v>4543</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="6">
         <v>0.87567300000000003</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="7">
         <v>9.9313050000000001E-21</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="14" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>2835</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>0.96363500000000002</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>9.6752819999999997E-21</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
